--- a/数据驱动测试数据.xlsx
+++ b/数据驱动测试数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756D37D6-9BE4-4516-8CB7-3681F02E8782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A34E502-A727-45B0-A4C1-3EDAD9AE6B1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TestData (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>Transaction</t>
   </si>
@@ -487,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -558,190 +559,78 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>12000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>73</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="1">
+        <v>200</v>
+      </c>
+      <c r="G3" s="1">
+        <v>200</v>
+      </c>
       <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H4" si="0">"$"&amp;SUM(B3:D3)&amp;".00"</f>
-        <v>$13073.00</v>
+        <f>"$"&amp;SUM(F3:G3)&amp;".00"</f>
+        <v>$400.00</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>3572</v>
+        <v>500</v>
       </c>
       <c r="C4" s="1">
-        <v>712</v>
+        <v>300</v>
       </c>
       <c r="D4" s="1">
-        <v>2134</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="E4" s="1">
+        <v>200</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>$6418.00</v>
+        <f t="shared" ref="H4:H5" si="0">"$"&amp;SUM(B4:D4)&amp;".00"</f>
+        <v>$1000.00</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>200</v>
-      </c>
-      <c r="G5" s="1">
-        <v>200</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>99</v>
+      </c>
+      <c r="D5" s="1">
+        <v>99</v>
+      </c>
+      <c r="E5" s="1">
+        <v>99</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="3" t="str">
-        <f>"$"&amp;SUM(F5:G5)&amp;".00"</f>
-        <v>$400.00</v>
+        <f t="shared" si="0"/>
+        <v>$1197.00</v>
       </c>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>200</v>
-      </c>
-      <c r="G6" s="1">
-        <v>300</v>
-      </c>
-      <c r="H6" s="3" t="str">
-        <f>"$"&amp;SUM(F6:G6)&amp;".00"</f>
-        <v>$500.00</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>200</v>
-      </c>
-      <c r="D7" s="1">
-        <v>300</v>
-      </c>
-      <c r="E7" s="1">
-        <v>100</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3" t="str">
-        <f t="shared" ref="H7:H10" si="1">"$"&amp;SUM(B7:D7)&amp;".00"</f>
-        <v>$1500.00</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>500</v>
-      </c>
-      <c r="C8" s="1">
-        <v>300</v>
-      </c>
-      <c r="D8" s="1">
-        <v>200</v>
-      </c>
-      <c r="E8" s="1">
-        <v>200</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>$1000.00</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>999</v>
-      </c>
-      <c r="C9" s="1">
-        <v>99</v>
-      </c>
-      <c r="D9" s="1">
-        <v>99</v>
-      </c>
-      <c r="E9" s="1">
-        <v>99</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>$1197.00</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>500</v>
-      </c>
-      <c r="C10" s="1">
-        <v>300</v>
-      </c>
-      <c r="D10" s="1">
-        <v>200</v>
-      </c>
-      <c r="E10" s="1">
-        <v>200</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>$1000.00</v>
-      </c>
-      <c r="I10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H7:H10" formulaRange="1"/>
+    <ignoredError sqref="H4:H5" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -774,4 +663,261 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3677934-B724-4B8C-8860-EDC5AA8CA7DE}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>111</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>200</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3" t="str">
+        <f>"$"&amp;SUM(B2:D2)&amp;".00"</f>
+        <v>$8311.00</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>73</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3" t="str">
+        <f t="shared" ref="H3:H4" si="0">"$"&amp;SUM(B3:D3)&amp;".00"</f>
+        <v>$13073.00</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3572</v>
+      </c>
+      <c r="C4" s="1">
+        <v>712</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2134</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>$6418.00</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>200</v>
+      </c>
+      <c r="G5" s="1">
+        <v>200</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f>"$"&amp;SUM(F5:G5)&amp;".00"</f>
+        <v>$400.00</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>200</v>
+      </c>
+      <c r="G6" s="1">
+        <v>300</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f>"$"&amp;SUM(F6:G6)&amp;".00"</f>
+        <v>$500.00</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>200</v>
+      </c>
+      <c r="D7" s="1">
+        <v>300</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3" t="str">
+        <f t="shared" ref="H7:H10" si="1">"$"&amp;SUM(B7:D7)&amp;".00"</f>
+        <v>$1500.00</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>500</v>
+      </c>
+      <c r="C8" s="1">
+        <v>300</v>
+      </c>
+      <c r="D8" s="1">
+        <v>200</v>
+      </c>
+      <c r="E8" s="1">
+        <v>200</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>$1000.00</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>99</v>
+      </c>
+      <c r="D9" s="1">
+        <v>99</v>
+      </c>
+      <c r="E9" s="1">
+        <v>99</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>$1197.00</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>500</v>
+      </c>
+      <c r="C10" s="1">
+        <v>300</v>
+      </c>
+      <c r="D10" s="1">
+        <v>200</v>
+      </c>
+      <c r="E10" s="1">
+        <v>200</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>$1000.00</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>